--- a/02-Requirements/Work matrix HU.xlsx
+++ b/02-Requirements/Work matrix HU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSIDAD\SEXTO SEMESTRE\DESARROLLO WEB\Actividad 5 GIT\DevelopersTeam2FashionStore\02-Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090840C4-BB9B-4E90-A1BF-316D82BE5A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD7346D-8A88-40BC-AE71-F0AA221CB8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5153D9AA-365A-42B5-8A27-3DE9F46FB439}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{5153D9AA-365A-42B5-8A27-3DE9F46FB439}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
   <si>
     <t>Matriz de Marco de Trabajo de HU</t>
   </si>
@@ -141,30 +141,15 @@
     <t>Registro de inventario y ganancias.</t>
   </si>
   <si>
-    <t>Registro de entrada de productos</t>
-  </si>
-  <si>
     <t>Registro de salidad de productos</t>
   </si>
   <si>
     <t>El sistema debe pedir los datos del proveedor como: Nombre, cédula, dirección y teléfono.</t>
   </si>
   <si>
-    <t>Ingreso al sistema de los productos entrantes</t>
-  </si>
-  <si>
-    <t>Llevar un registro de los productos que entran</t>
-  </si>
-  <si>
-    <t>El sistema debe solicitar datos del producto: Codigo, nombre, descripcion, cantidad, precio y ganancia.</t>
-  </si>
-  <si>
     <t>Ingreso de los productos de forma exitosa.</t>
   </si>
   <si>
-    <t>Registro de producto entrante</t>
-  </si>
-  <si>
     <t>Conocer los productos que salen</t>
   </si>
   <si>
@@ -181,6 +166,99 @@
   </si>
   <si>
     <t>El sistema debe registrar la cantidad de productos vendidos y descontar del inventario los productos que se vendio</t>
+  </si>
+  <si>
+    <t>Acceso al sistema</t>
+  </si>
+  <si>
+    <t>Formulario de inicio de sesión</t>
+  </si>
+  <si>
+    <t>Los usuario tendrán acceso ingresando usuario y contraña o con su cuenta de Google</t>
+  </si>
+  <si>
+    <t>El sistema contará con un login para acceso del o los usuarios adminsitradores al sistema</t>
+  </si>
+  <si>
+    <t>&lt;8 hr</t>
+  </si>
+  <si>
+    <t>AL ingresar las credenciales del usuario en caso de ser incorrectas no deberá permitir el ingreso al sistema</t>
+  </si>
+  <si>
+    <t>Ingresar usuario o contraseña o iniciar con la cuenta de Google</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Menú de funcionalidades</t>
+  </si>
+  <si>
+    <t>Mostrar un menú con las funcionalides que ofrece el sistema</t>
+  </si>
+  <si>
+    <t>El adminsitrador tendrá varias opciones a realizar</t>
+  </si>
+  <si>
+    <t>El adminsitrador tendrá varias opciones  para realizar en el sistma</t>
+  </si>
+  <si>
+    <t>Una vez se cumpla el REQ001 el sistema mostrará un menú con las diferentes opciones</t>
+  </si>
+  <si>
+    <t>El menú será horizontal</t>
+  </si>
+  <si>
+    <t>Listar productos vendidos</t>
+  </si>
+  <si>
+    <t>Listado  de productos vendidos</t>
+  </si>
+  <si>
+    <t>Llevar un control de la venta de productos</t>
+  </si>
+  <si>
+    <t>El sistema debe solicitar datos del producto: Codigo, nombre, descripcion, cantidad, precio</t>
+  </si>
+  <si>
+    <t>REQ005</t>
+  </si>
+  <si>
+    <t>Cálculo de ganancias por cada producto vendido</t>
+  </si>
+  <si>
+    <t>Mostrar las ganancias de cada producto</t>
+  </si>
+  <si>
+    <t>Llevar un control de ganancias por producto</t>
+  </si>
+  <si>
+    <t>El sistema calculará las ganacias de manera automática basada en los valores ingresados en la venta</t>
+  </si>
+  <si>
+    <t>El cáculo debe cuadrar con las ganancias configuradas</t>
+  </si>
+  <si>
+    <t>El cálculo será automático</t>
+  </si>
+  <si>
+    <t>Cálculo de ganancias por producto</t>
+  </si>
+  <si>
+    <t>Registro de venta de productos</t>
+  </si>
+  <si>
+    <t>Ingreso al sistema de los productos vendidos</t>
+  </si>
+  <si>
+    <t>Llevar un registro de los productos vendidos</t>
+  </si>
+  <si>
+    <t>El sistema debe listará los datos del  producto: Codigo, nombre, descripcion, cantidad, precio</t>
+  </si>
+  <si>
+    <t>Lista de productos vendidos</t>
   </si>
 </sst>
 </file>
@@ -612,28 +690,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4527FA18-ABB7-4CFC-8EEF-33C17DFFDA53}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
-    <col min="7" max="7" width="17.36328125" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" customWidth="1"/>
-    <col min="9" max="9" width="13.08984375" customWidth="1"/>
-    <col min="12" max="12" width="19.6328125" customWidth="1"/>
-    <col min="13" max="13" width="16.453125" customWidth="1"/>
-    <col min="14" max="14" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -651,7 +729,7 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
     </row>
-    <row r="2" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -695,33 +773,33 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="92" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I3" s="2">
-        <v>44888</v>
+        <v>44928</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
@@ -730,42 +808,42 @@
         <v>18</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="78" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I4" s="2">
-        <v>44888</v>
+        <v>44929</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>17</v>
@@ -774,42 +852,42 @@
         <v>18</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="91" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I5" s="2">
-        <v>44888</v>
+        <v>44929</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
@@ -818,42 +896,42 @@
         <v>18</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>28</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="65" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I6" s="2">
-        <v>44888</v>
+        <v>44929</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
@@ -862,12 +940,188 @@
         <v>18</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>28</v>
       </c>
       <c r="N6" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="2">
+        <v>44929</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="2">
+        <v>44888</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="2">
+        <v>44888</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="69" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="2">
+        <v>44888</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -877,14 +1131,14 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K3:K6" xr:uid="{83BC428A-36F9-42CB-941F-6010D337FBCE}">
-      <formula1>$K$20:$K$23</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K10:K11 K3:K8" xr:uid="{83BC428A-36F9-42CB-941F-6010D337FBCE}">
+      <formula1>$K$25:$K$28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J3:J6" xr:uid="{167A1E12-CD84-4510-AB00-21DA3727B760}">
-      <formula1>$J$20:$J$22</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J10:J11 J3:J8" xr:uid="{167A1E12-CD84-4510-AB00-21DA3727B760}">
+      <formula1>$J$25:$J$27</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/02-Requirements/Work matrix HU.xlsx
+++ b/02-Requirements/Work matrix HU.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSIDAD\SEXTO SEMESTRE\DESARROLLO WEB\Actividad 5 GIT\DevelopersTeam2FashionStore\02-Requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\Trabajos de Git Hub\DevelopersTeam2FashionStore\02-Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD7346D-8A88-40BC-AE71-F0AA221CB8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC27B8D-102C-45B3-B762-EBB2DE9CB0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{5153D9AA-365A-42B5-8A27-3DE9F46FB439}"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{5153D9AA-365A-42B5-8A27-3DE9F46FB439}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="97">
   <si>
     <t>Matriz de Marco de Trabajo de HU</t>
   </si>
@@ -114,9 +106,6 @@
     <t>Conocer datos del proveedor</t>
   </si>
   <si>
-    <t>Saber los tipos de proveedores que tengo</t>
-  </si>
-  <si>
     <t>GR 02</t>
   </si>
   <si>
@@ -144,9 +133,6 @@
     <t>Registro de salidad de productos</t>
   </si>
   <si>
-    <t>El sistema debe pedir los datos del proveedor como: Nombre, cédula, dirección y teléfono.</t>
-  </si>
-  <si>
     <t>Ingreso de los productos de forma exitosa.</t>
   </si>
   <si>
@@ -259,6 +245,81 @@
   </si>
   <si>
     <t>Lista de productos vendidos</t>
+  </si>
+  <si>
+    <t>REQ006</t>
+  </si>
+  <si>
+    <t>Llevar un control de los proveedores</t>
+  </si>
+  <si>
+    <t>REQ008</t>
+  </si>
+  <si>
+    <t>REQ007</t>
+  </si>
+  <si>
+    <t>Listar Proveedor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Listar Proveedor</t>
+  </si>
+  <si>
+    <t>Conocer los proveedores que registro</t>
+  </si>
+  <si>
+    <t>Listar los proveedores registrados</t>
+  </si>
+  <si>
+    <t>El sistema debe pedir los datos del proveedor como: ID, Nombre, Dirección, Teléfono, Tipo de producto y Total.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema debe listar los datos del proveedor: Nombre, Dirección, Teléfono, Tipo de Producto.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modificar Proveedor</t>
+  </si>
+  <si>
+    <t>Cambiar datos de proveedor</t>
+  </si>
+  <si>
+    <t>Actualizar datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema contara con botones de Editar, Eliminar y Agregar </t>
+  </si>
+  <si>
+    <t>Modificacion de datos de forma exitosa</t>
+  </si>
+  <si>
+    <t>El usuario podra modificar los datos a su gusto</t>
+  </si>
+  <si>
+    <t>Modificar Proveedor</t>
+  </si>
+  <si>
+    <t>REQ009</t>
+  </si>
+  <si>
+    <t>Menu Proveedor</t>
+  </si>
+  <si>
+    <t>Menú Proveedor</t>
+  </si>
+  <si>
+    <t>Opciones a realizar con el Proveedor</t>
+  </si>
+  <si>
+    <t>Eleguir opciones a realizar con el proveedor</t>
+  </si>
+  <si>
+    <t>El sistema contara con un menu en el que se indique la opcion proveedores y poder eleguir alguna acción</t>
+  </si>
+  <si>
+    <t>Mostrar opciones y direccionar a la accion de la opcion</t>
+  </si>
+  <si>
+    <t>El usuario podra eleguir 2 opciones</t>
   </si>
 </sst>
 </file>
@@ -690,28 +751,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4527FA18-ABB7-4CFC-8EEF-33C17DFFDA53}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" customWidth="1"/>
+    <col min="5" max="5" width="15.796875" customWidth="1"/>
+    <col min="6" max="6" width="18.19921875" customWidth="1"/>
+    <col min="7" max="7" width="17.296875" customWidth="1"/>
+    <col min="8" max="8" width="13.796875" customWidth="1"/>
+    <col min="9" max="9" width="13.09765625" customWidth="1"/>
+    <col min="12" max="12" width="19.69921875" customWidth="1"/>
+    <col min="13" max="13" width="16.3984375" customWidth="1"/>
+    <col min="14" max="14" width="11.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="20.95" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -729,7 +790,7 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
     </row>
-    <row r="2" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="55.9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -773,30 +834,30 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="92.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I3" s="2">
         <v>44928</v>
@@ -808,39 +869,39 @@
         <v>18</v>
       </c>
       <c r="L3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:14" ht="92.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I4" s="2">
         <v>44929</v>
@@ -852,39 +913,39 @@
         <v>18</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="92.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I5" s="2">
         <v>44929</v>
@@ -896,39 +957,39 @@
         <v>18</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="92.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I6" s="2">
         <v>44929</v>
@@ -940,39 +1001,39 @@
         <v>18</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="92.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I7" s="2">
         <v>44929</v>
@@ -984,18 +1045,18 @@
         <v>18</v>
       </c>
       <c r="L7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:14" ht="92.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>23</v>
@@ -1004,22 +1065,22 @@
         <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I8" s="2">
-        <v>44888</v>
+        <v>44929</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>17</v>
@@ -1028,42 +1089,86 @@
         <v>18</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="73.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="2">
+        <v>44929</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="N9" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="81.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I10" s="2">
-        <v>44888</v>
+        <v>44929</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>17</v>
@@ -1072,42 +1177,42 @@
         <v>18</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="69" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="80.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I11" s="2">
-        <v>44888</v>
+        <v>44929</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>17</v>
@@ -1116,13 +1221,133 @@
         <v>18</v>
       </c>
       <c r="L11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="55.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" ht="94.05" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N11" s="4" t="s">
+      <c r="C14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="2">
+        <v>44888</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="67.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>31</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="2">
+        <v>44888</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1131,11 +1356,11 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K10:K11 K3:K8" xr:uid="{83BC428A-36F9-42CB-941F-6010D337FBCE}">
-      <formula1>$K$25:$K$28</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K3:K15" xr:uid="{83BC428A-36F9-42CB-941F-6010D337FBCE}">
+      <formula1>$K$29:$K$32</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J10:J11 J3:J8" xr:uid="{167A1E12-CD84-4510-AB00-21DA3727B760}">
-      <formula1>$J$25:$J$27</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J3:J15" xr:uid="{167A1E12-CD84-4510-AB00-21DA3727B760}">
+      <formula1>$J$29:$J$31</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/02-Requirements/Work matrix HU.xlsx
+++ b/02-Requirements/Work matrix HU.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\Trabajos de Git Hub\DevelopersTeam2FashionStore\02-Requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abiga\OneDrive\Documentos\Actividades desarrollo web\DevelopersTeam2FashionStore\02-Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC27B8D-102C-45B3-B762-EBB2DE9CB0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D80122C-A6CC-4C66-9CE2-990D9CA3C0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{5153D9AA-365A-42B5-8A27-3DE9F46FB439}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5153D9AA-365A-42B5-8A27-3DE9F46FB439}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="122">
   <si>
     <t>Matriz de Marco de Trabajo de HU</t>
   </si>
@@ -320,6 +320,81 @@
   </si>
   <si>
     <t>El usuario podra eleguir 2 opciones</t>
+  </si>
+  <si>
+    <t>REQ0011</t>
+  </si>
+  <si>
+    <t>REQ0012</t>
+  </si>
+  <si>
+    <t>REQ0013</t>
+  </si>
+  <si>
+    <t>Menu Clientes</t>
+  </si>
+  <si>
+    <t>Registrar Clientes</t>
+  </si>
+  <si>
+    <t>Listar Clientes</t>
+  </si>
+  <si>
+    <t>Modificar Clientes</t>
+  </si>
+  <si>
+    <t>Opciones a realizar con el cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conocer datos del Cliente </t>
+  </si>
+  <si>
+    <t>Conocer los clientes registrados</t>
+  </si>
+  <si>
+    <t>Modificar los datos de los clientes ya registrados</t>
+  </si>
+  <si>
+    <t>Opciones a realizar con los clientes</t>
+  </si>
+  <si>
+    <t>Registro de los Clientes</t>
+  </si>
+  <si>
+    <t>Listar los clientes ya registrados</t>
+  </si>
+  <si>
+    <t>El sistema contara con un menu en el que se indique la opcion clientes y poder eleguir alguna acción</t>
+  </si>
+  <si>
+    <t>El sistema debe pedir los datos de los clientes  como:  Nombre, Apellido, Email y Teléfono .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema debe listar los datos del cliente: Nombre, Apellido, Email y Teléfono </t>
+  </si>
+  <si>
+    <t>REQ0010</t>
+  </si>
+  <si>
+    <t>Mostrar la  opcion cliente y direccionar a la accion de la opcion</t>
+  </si>
+  <si>
+    <t>el registro de clientes es exitosa y se visualiza en la base de datos de AmongoDB.</t>
+  </si>
+  <si>
+    <t>Ingreso a la opcion listar clientes  de forma exitosa.</t>
+  </si>
+  <si>
+    <t>Modificacion de datos de forma exitosa y se ve reflejado en la base de datos de AmongoDB</t>
+  </si>
+  <si>
+    <t>El usuario administrador puede elegir 2 opciones</t>
+  </si>
+  <si>
+    <t>visualizacion de los clientes registrados</t>
+  </si>
+  <si>
+    <t>El usuario podra editar, eliminar y agregar datos según lo considere oportuno.</t>
   </si>
 </sst>
 </file>
@@ -369,7 +444,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,6 +460,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -437,6 +518,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -751,28 +838,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4527FA18-ABB7-4CFC-8EEF-33C17DFFDA53}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.796875" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" customWidth="1"/>
-    <col min="4" max="4" width="14.3984375" customWidth="1"/>
-    <col min="5" max="5" width="15.796875" customWidth="1"/>
-    <col min="6" max="6" width="18.19921875" customWidth="1"/>
-    <col min="7" max="7" width="17.296875" customWidth="1"/>
-    <col min="8" max="8" width="13.796875" customWidth="1"/>
-    <col min="9" max="9" width="13.09765625" customWidth="1"/>
-    <col min="12" max="12" width="19.69921875" customWidth="1"/>
-    <col min="13" max="13" width="16.3984375" customWidth="1"/>
-    <col min="14" max="14" width="11.796875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.95" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -790,7 +877,7 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
     </row>
-    <row r="2" spans="1:14" ht="55.9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -834,7 +921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="92.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="92.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -878,7 +965,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="92.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="92.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -922,7 +1009,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="92.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="92.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -966,7 +1053,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="92.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="92.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
@@ -1010,7 +1097,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="92.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="92.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>59</v>
       </c>
@@ -1054,17 +1141,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="92.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:14" ht="92.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="9" t="s">
         <v>73</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -1098,7 +1185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="73.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>75</v>
       </c>
@@ -1142,7 +1229,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="81.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>74</v>
       </c>
@@ -1186,7 +1273,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="80.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="80.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>89</v>
       </c>
@@ -1230,65 +1317,121 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="55.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+    <row r="12" spans="1:14" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="2">
+        <v>44929</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+    <row r="13" spans="1:14" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="2">
+        <v>44929</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" ht="94.05" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>25</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I14" s="2">
-        <v>44888</v>
+        <v>44929</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>17</v>
@@ -1297,42 +1440,42 @@
         <v>18</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I15" s="2">
-        <v>44888</v>
+        <v>44929</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>17</v>
@@ -1341,12 +1484,100 @@
         <v>18</v>
       </c>
       <c r="L15" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="2">
+        <v>44888</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="2">
+        <v>44888</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N17" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1356,10 +1587,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K3:K15" xr:uid="{83BC428A-36F9-42CB-941F-6010D337FBCE}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K3:K17" xr:uid="{83BC428A-36F9-42CB-941F-6010D337FBCE}">
       <formula1>$K$29:$K$32</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J3:J15" xr:uid="{167A1E12-CD84-4510-AB00-21DA3727B760}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J3:J17" xr:uid="{167A1E12-CD84-4510-AB00-21DA3727B760}">
       <formula1>$J$29:$J$31</formula1>
     </dataValidation>
   </dataValidations>

--- a/02-Requirements/Work matrix HU.xlsx
+++ b/02-Requirements/Work matrix HU.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abiga\OneDrive\Documentos\Actividades desarrollo web\DevelopersTeam2FashionStore\02-Requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp intel celeron\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D80122C-A6CC-4C66-9CE2-990D9CA3C0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731EF3A0-0BD1-44B9-8A1B-9933B7123B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5153D9AA-365A-42B5-8A27-3DE9F46FB439}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="153">
   <si>
     <t>Matriz de Marco de Trabajo de HU</t>
   </si>
@@ -395,6 +395,99 @@
   </si>
   <si>
     <t>El usuario podra editar, eliminar y agregar datos según lo considere oportuno.</t>
+  </si>
+  <si>
+    <t>Registro de Inventario</t>
+  </si>
+  <si>
+    <t>REQ0014</t>
+  </si>
+  <si>
+    <t>REQ0015</t>
+  </si>
+  <si>
+    <t>REQ0016</t>
+  </si>
+  <si>
+    <t>REQ0017</t>
+  </si>
+  <si>
+    <t>Listar Inventario o bodega</t>
+  </si>
+  <si>
+    <t>Calculo del tiempo que un producto esta en bodega, desde su ingreso hasta su salida.</t>
+  </si>
+  <si>
+    <t>Modificar Inventario o Bodega.</t>
+  </si>
+  <si>
+    <t>Calculo de tiempo en bodega.</t>
+  </si>
+  <si>
+    <t>Modificar Inventario</t>
+  </si>
+  <si>
+    <t>Listar Inventario</t>
+  </si>
+  <si>
+    <t>Registro Inventario.</t>
+  </si>
+  <si>
+    <t>El sistema debe pedir los datos de los productos  como:  Id, nombre, cantidad, dia de entrada, dia de salida.</t>
+  </si>
+  <si>
+    <t>El sistema debe listar los datos del inventario como: nombre, cantidad, dia de entrada, dia de salida, tiempo en inventario.</t>
+  </si>
+  <si>
+    <t>El sistema calculará el tiempo de un producto en bodega de forma automática basada en los dias de entrada y salida de un producto.</t>
+  </si>
+  <si>
+    <t>El sistema contara con botones de Editar, Eliminar y Agregar</t>
+  </si>
+  <si>
+    <t>Conocer la cantidad de un producto, su ingreso y salida.</t>
+  </si>
+  <si>
+    <t>Registro de productos en Inventario.</t>
+  </si>
+  <si>
+    <t>El registro de inventario es exitosa y se visualiza en la base de datos de mongoDB.</t>
+  </si>
+  <si>
+    <t>visualizacion de la lista de pruductos ingresados, su entrada y salida.</t>
+  </si>
+  <si>
+    <t>Ingreso a la opcion listar inventario  de forma exitosa.</t>
+  </si>
+  <si>
+    <t>REQ0018</t>
+  </si>
+  <si>
+    <t>REQ0019</t>
+  </si>
+  <si>
+    <t>Conocer datos de productos ingreso y salida de los mismos.</t>
+  </si>
+  <si>
+    <t>Listar los productos, cantidad y tiempo en bodega.</t>
+  </si>
+  <si>
+    <t>Mostrar el tiempo en bodega de un  producto.</t>
+  </si>
+  <si>
+    <t>Llevar un control del tiempo en bodega de un producto ingresado, hasta su salida.</t>
+  </si>
+  <si>
+    <t>El cálculo debe ser correcto desde la fecha de el ingreso de un producto, hasta la salida del mismo.</t>
+  </si>
+  <si>
+    <t>Modificar los datos de los productos ingresados,  ya registrados.</t>
+  </si>
+  <si>
+    <t>Actualizar datos ingresados.</t>
+  </si>
+  <si>
+    <t>Se Modificara los datos de forma exitosa y se ve reflejado en la base de datos de mongoDB.</t>
   </si>
 </sst>
 </file>
@@ -416,6 +509,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -514,16 +608,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -838,44 +932,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4527FA18-ABB7-4CFC-8EEF-33C17DFFDA53}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="13.140625" customWidth="1"/>
     <col min="12" max="12" width="19.7109375" customWidth="1"/>
     <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1104,16 +1198,16 @@
       <c r="B7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="1" t="s">
         <v>63</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -1131,10 +1225,10 @@
       <c r="K7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="1" t="s">
         <v>65</v>
       </c>
       <c r="N7" s="4" t="s">
@@ -1142,16 +1236,16 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="92.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -1368,7 +1462,7 @@
       <c r="B13" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>105</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1377,7 +1471,7 @@
       <c r="E13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -1395,10 +1489,10 @@
       <c r="K13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="N13" s="4" t="s">
@@ -1412,16 +1506,16 @@
       <c r="B14" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="1" t="s">
         <v>113</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -1439,10 +1533,10 @@
       <c r="K14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="1" t="s">
         <v>120</v>
       </c>
       <c r="N14" s="4" t="s">
@@ -1456,19 +1550,19 @@
       <c r="B15" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -1483,43 +1577,43 @@
       <c r="K15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="1" t="s">
         <v>121</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>40</v>
+      <c r="F16" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I16" s="2">
-        <v>44888</v>
+        <v>44929</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>17</v>
@@ -1527,43 +1621,43 @@
       <c r="K16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="4" t="s">
-        <v>37</v>
+      <c r="L16" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N16" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="N16" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>39</v>
+      <c r="F17" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>25</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I17" s="2">
-        <v>44888</v>
+        <v>44929</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>17</v>
@@ -1571,13 +1665,189 @@
       <c r="K17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="2">
+        <v>44929</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="2">
+        <v>44929</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="2">
+        <v>44888</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="2">
+        <v>44888</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="N21" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1587,11 +1857,11 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K3:K17" xr:uid="{83BC428A-36F9-42CB-941F-6010D337FBCE}">
-      <formula1>$K$29:$K$32</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K3:K21" xr:uid="{83BC428A-36F9-42CB-941F-6010D337FBCE}">
+      <formula1>$K$33:$K$36</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J3:J17" xr:uid="{167A1E12-CD84-4510-AB00-21DA3727B760}">
-      <formula1>$J$29:$J$31</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J3:J21" xr:uid="{167A1E12-CD84-4510-AB00-21DA3727B760}">
+      <formula1>$J$33:$J$35</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/02-Requirements/Work matrix HU.xlsx
+++ b/02-Requirements/Work matrix HU.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp intel celeron\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESPE\SEPTIMO SEMESTRE\DevelopersTeam2FashionStore\02-Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731EF3A0-0BD1-44B9-8A1B-9933B7123B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D655D3D-83DB-4F5C-8BB3-8DD845611CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5153D9AA-365A-42B5-8A27-3DE9F46FB439}"/>
   </bookViews>
@@ -935,7 +935,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1807,7 +1807,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="51" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>144</v>
       </c>

--- a/02-Requirements/Work matrix HU.xlsx
+++ b/02-Requirements/Work matrix HU.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESPE\SEPTIMO SEMESTRE\DevelopersTeam2FashionStore\02-Requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSIDAD\SEXTO SEMESTRE\DESARROLLO WEB\Actividad 5 GIT\DevelopersTeam2FashionStore\02-Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D655D3D-83DB-4F5C-8BB3-8DD845611CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C069EF-C4C4-4091-85E5-FAD9963BB5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5153D9AA-365A-42B5-8A27-3DE9F46FB439}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5153D9AA-365A-42B5-8A27-3DE9F46FB439}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="163">
   <si>
     <t>Matriz de Marco de Trabajo de HU</t>
   </si>
@@ -488,6 +489,36 @@
   </si>
   <si>
     <t>Se Modificara los datos de forma exitosa y se ve reflejado en la base de datos de mongoDB.</t>
+  </si>
+  <si>
+    <t>Reporte de ventas</t>
+  </si>
+  <si>
+    <t>Control de ventas de productos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parra llevar un cotrol de ventas </t>
+  </si>
+  <si>
+    <t>El sistema tendrá una opción de reportería de ventas</t>
+  </si>
+  <si>
+    <t>&lt;6 hr</t>
+  </si>
+  <si>
+    <t>Se debe mostrar el cálculo de Iva y el total</t>
+  </si>
+  <si>
+    <t>Ayudará a el control de ventas</t>
+  </si>
+  <si>
+    <t>Reporte de Ventas de productos</t>
+  </si>
+  <si>
+    <t>REQ0020</t>
+  </si>
+  <si>
+    <t>Requerimientos</t>
   </si>
 </sst>
 </file>
@@ -497,7 +528,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,6 +564,35 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -591,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -618,6 +678,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -932,28 +1010,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4527FA18-ABB7-4CFC-8EEF-33C17DFFDA53}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -971,7 +1049,7 @@
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
     </row>
-    <row r="2" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1015,7 +1093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="92.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="92.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1059,7 +1137,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="92.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="92.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1103,7 +1181,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="92.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="92.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1147,7 +1225,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="92.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="92.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
@@ -1191,7 +1269,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="92.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="92.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>59</v>
       </c>
@@ -1235,7 +1313,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="92.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="92.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>72</v>
       </c>
@@ -1279,7 +1357,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>75</v>
       </c>
@@ -1323,7 +1401,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>74</v>
       </c>
@@ -1367,7 +1445,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="80.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="80.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>89</v>
       </c>
@@ -1411,7 +1489,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>114</v>
       </c>
@@ -1455,7 +1533,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>97</v>
       </c>
@@ -1499,7 +1577,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>98</v>
       </c>
@@ -1543,7 +1621,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>99</v>
       </c>
@@ -1587,7 +1665,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>123</v>
       </c>
@@ -1631,7 +1709,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>124</v>
       </c>
@@ -1675,7 +1753,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>125</v>
       </c>
@@ -1719,7 +1797,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>126</v>
       </c>
@@ -1763,7 +1841,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>143</v>
       </c>
@@ -1807,7 +1885,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>144</v>
       </c>
@@ -1850,6 +1928,53 @@
       <c r="N21" s="4" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="22" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I22" s="2">
+        <v>44888</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C29" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1857,14 +1982,986 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K3:K21" xr:uid="{83BC428A-36F9-42CB-941F-6010D337FBCE}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K3:K22" xr:uid="{83BC428A-36F9-42CB-941F-6010D337FBCE}">
       <formula1>$K$33:$K$36</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J3:J21" xr:uid="{167A1E12-CD84-4510-AB00-21DA3727B760}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J3:J22" xr:uid="{167A1E12-CD84-4510-AB00-21DA3727B760}">
       <formula1>$J$33:$J$35</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC73AC2-0F46-4291-A1EE-95BD2DAD729E}">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="14.21875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+    </row>
+    <row r="2" spans="1:14" ht="69" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="16">
+        <v>44928</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="2">
+        <v>44929</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="2">
+        <v>44929</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="2">
+        <v>44929</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="2">
+        <v>44929</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="2">
+        <v>44929</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="2">
+        <v>44929</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="2">
+        <v>44929</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="138" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="2">
+        <v>44929</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="2">
+        <v>44929</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="2">
+        <v>44929</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="2">
+        <v>44929</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="2">
+        <v>44929</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="2">
+        <v>44929</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="2">
+        <v>44929</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="165.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="2">
+        <v>44929</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="2">
+        <v>44929</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="2">
+        <v>44888</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="2">
+        <v>44888</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="69" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I22" s="2">
+        <v>44888</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J3:J22" xr:uid="{F4BB7B43-BABA-4381-9BCA-53086D097157}">
+      <formula1>$J$33:$J$35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K3:K22" xr:uid="{FF961346-6638-438E-90D6-0168CECC793A}">
+      <formula1>$K$33:$K$36</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>